--- a/Entities/DB/SeedData/product/brand.xlsx
+++ b/Entities/DB/SeedData/product/brand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eee0e5a6c82ab4a5/Documents/product/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALBAB\Entities\DB\SeedData\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{4AF88848-CC7E-457A-883D-F3A1D99CDC78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{26EE107A-4590-4753-BB2E-D2D6DAA9EDDC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A268D0D-7360-4763-B967-62E5E3602931}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1188" windowWidth="17280" windowHeight="8964" xr2:uid="{51BC08C8-9C6B-4D69-B342-C022603B8642}"/>
+    <workbookView xWindow="-11700" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{51BC08C8-9C6B-4D69-B342-C022603B8642}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
